--- a/Export.xlsx
+++ b/Export.xlsx
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>COM / COM-002 (Gauging bench)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>COM / COM-002 (Gauging bench)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6683,22 +6683,22 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Gauge [0-150mm]</t>
+          <t>Gauge [0 +150 mm]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -7018,22 +7018,22 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Gauge [0-150mm]</t>
+          <t>Gauge [0 +150 mm]</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Gauge [0-150mm]</t>
+          <t>Gauge [0 +150 mm]</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>Gauge [0-150mm]</t>
+          <t>Gauge [0 +150 mm]</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>Gauge [0-150mm]</t>
+          <t>Gauge [0 +150 mm]</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -7187,22 +7187,22 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>Gauge [0-300mm]</t>
+          <t>Gauge [0 +300 mm]</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
@@ -7821,12 +7821,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>COLLIEZ Céline</t>
+          <t>MANIETTE Morgan</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>IVC / EPE-009\ IVC</t>
+          <t>IVC / EPE-009 / IVC / SCRAPPED</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>COLLIEZ Céline</t>
+          <t>MANIETTE Morgan</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11964,7 +11964,7 @@
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL66" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL69" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL71" t="inlineStr">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL73" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL74" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL75" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="AK76" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL76" t="inlineStr">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -13936,7 +13936,7 @@
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL77" t="inlineStr">
@@ -14018,7 +14018,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL78" t="inlineStr">
@@ -14197,7 +14197,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="AK79" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL79" t="inlineStr">
@@ -14376,7 +14376,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="AK80" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL80" t="inlineStr">
@@ -14555,7 +14555,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="AK81" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL81" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL82" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL83" t="inlineStr">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL84" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL85" t="inlineStr">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -15547,7 +15547,7 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL86" t="inlineStr">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -15726,7 +15726,7 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL88" t="inlineStr">
@@ -15987,7 +15987,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -16084,7 +16084,7 @@
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL89" t="inlineStr">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="AK90" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL90" t="inlineStr">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL91" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL92" t="inlineStr">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -16805,7 +16805,7 @@
       </c>
       <c r="AK93" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL93" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="AK94" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL94" t="inlineStr">
@@ -17067,7 +17067,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL95" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL96" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="AK97" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL97" t="inlineStr">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL98" t="inlineStr">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL99" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL100" t="inlineStr">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -18256,7 +18256,7 @@
       </c>
       <c r="AK101" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL101" t="inlineStr">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="AK102" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL102" t="inlineStr">
@@ -18522,7 +18522,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="AK103" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL103" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL104" t="inlineStr">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="AK105" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL105" t="inlineStr">
@@ -20423,7 +20423,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL114" t="inlineStr">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="AK115" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL115" t="inlineStr">
@@ -20788,7 +20788,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -20885,7 +20885,7 @@
       </c>
       <c r="AK116" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL116" t="inlineStr">
@@ -20949,7 +20949,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -20961,7 +20961,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -21032,27 +21032,27 @@
       </c>
       <c r="AG117" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -21128,7 +21128,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -21199,27 +21199,27 @@
       </c>
       <c r="AG118" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AH118" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AJ118" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AK118" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL118" t="inlineStr">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -21295,7 +21295,7 @@
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -21366,27 +21366,27 @@
       </c>
       <c r="AG119" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AH119" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AI119" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AJ119" t="inlineStr">
         <is>
-          <t>Gauge [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AK119" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL119" t="inlineStr">
@@ -21464,7 +21464,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -21561,7 +21561,7 @@
       </c>
       <c r="AK120" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL120" t="inlineStr">
@@ -21641,7 +21641,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="AK121" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL121" t="inlineStr">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -21918,7 +21918,7 @@
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL122" t="inlineStr">
@@ -22000,12 +22000,12 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>MET / O. Routier</t>
+          <t>MET / Etablie E-MET-01</t>
         </is>
       </c>
       <c r="P123" t="inlineStr"/>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="AK123" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL123" t="inlineStr">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -22268,7 +22268,7 @@
       </c>
       <c r="AK124" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL124" t="inlineStr">
@@ -22350,7 +22350,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -22443,7 +22443,7 @@
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL125" t="inlineStr">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL126" t="inlineStr">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -22794,7 +22794,7 @@
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="AK128" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL128" t="inlineStr">
@@ -23053,7 +23053,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="AK129" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL129" t="inlineStr">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -23321,7 +23321,7 @@
       </c>
       <c r="AK130" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL130" t="inlineStr">
@@ -23403,7 +23403,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="AK131" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL131" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
@@ -23754,7 +23754,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -23847,7 +23847,7 @@
       </c>
       <c r="AK133" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL133" t="inlineStr">
@@ -23931,7 +23931,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -24024,7 +24024,7 @@
       </c>
       <c r="AK134" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL134" t="inlineStr">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="AK135" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL135" t="inlineStr">
@@ -24281,7 +24281,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -24374,7 +24374,7 @@
       </c>
       <c r="AK136" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL136" t="inlineStr">
@@ -24456,7 +24456,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -24548,7 +24548,7 @@
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL137" t="inlineStr">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -24723,7 +24723,7 @@
       </c>
       <c r="AK138" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL138" t="inlineStr">
@@ -24803,7 +24803,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="AK139" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL139" t="inlineStr">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="AK140" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL140" t="inlineStr">
@@ -25153,7 +25153,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -25246,7 +25246,7 @@
       </c>
       <c r="AK141" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL141" t="inlineStr">
@@ -25328,7 +25328,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -25421,7 +25421,7 @@
       </c>
       <c r="AK142" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL142" t="inlineStr">
@@ -25503,7 +25503,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -25595,7 +25595,7 @@
       </c>
       <c r="AK143" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL143" t="inlineStr">
@@ -25669,7 +25669,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="AK144" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL144" t="inlineStr">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -25936,7 +25936,7 @@
       </c>
       <c r="AK145" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL145" t="inlineStr">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -26111,7 +26111,7 @@
       </c>
       <c r="AK146" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL146" t="inlineStr">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -26287,7 +26287,7 @@
       </c>
       <c r="AK147" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL147" t="inlineStr">
@@ -26363,7 +26363,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -26455,7 +26455,7 @@
       </c>
       <c r="AK148" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL148" t="inlineStr">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="AK149" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL149" t="inlineStr">
@@ -26712,7 +26712,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -26806,7 +26806,7 @@
       </c>
       <c r="AK150" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL150" t="inlineStr">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -26982,7 +26982,7 @@
       </c>
       <c r="AK151" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL151" t="inlineStr">
@@ -27062,7 +27062,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="AK152" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL152" t="inlineStr">
@@ -27242,7 +27242,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -27346,7 +27346,7 @@
       </c>
       <c r="AK153" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL153" t="inlineStr">
@@ -27426,7 +27426,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -27518,7 +27518,7 @@
       </c>
       <c r="AK154" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL154" t="inlineStr">
@@ -27602,7 +27602,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -27693,7 +27693,7 @@
       </c>
       <c r="AK155" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL155" t="inlineStr">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -27866,7 +27866,7 @@
       </c>
       <c r="AK156" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL156" t="inlineStr">
@@ -27948,7 +27948,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -28039,7 +28039,7 @@
       </c>
       <c r="AK157" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL157" t="inlineStr">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="AK158" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL158" t="inlineStr">
@@ -28294,7 +28294,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="AK159" t="inlineStr">
         <is>
-          <t>SALAUN Loïc</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL159" t="inlineStr">
@@ -28449,7 +28449,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Caliper [0 200 mm]</t>
+          <t>Caliper [0 +200 mm]</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -28527,22 +28527,22 @@
       </c>
       <c r="AG160" t="inlineStr">
         <is>
-          <t>Caliper [0 200 mm]</t>
+          <t>Caliper [0 +200 mm]</t>
         </is>
       </c>
       <c r="AH160" t="inlineStr">
         <is>
-          <t>Caliper [0 200 mm]</t>
+          <t>Caliper [0 +200 mm]</t>
         </is>
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>Caliper [0 200 mm]</t>
+          <t>Caliper [0 +200 mm]</t>
         </is>
       </c>
       <c r="AJ160" t="inlineStr">
         <is>
-          <t>Caliper [0 200 mm]</t>
+          <t>Caliper [0 +200 mm]</t>
         </is>
       </c>
       <c r="AK160" t="inlineStr">
@@ -28627,7 +28627,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -28718,7 +28718,7 @@
       </c>
       <c r="AK161" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL161" t="inlineStr">
@@ -28800,7 +28800,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="AK162" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL162" t="inlineStr">
@@ -28969,7 +28969,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -29060,7 +29060,7 @@
       </c>
       <c r="AK163" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL163" t="inlineStr">
@@ -29136,7 +29136,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -29227,7 +29227,7 @@
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL164" t="inlineStr">
@@ -29307,7 +29307,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -29396,7 +29396,7 @@
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL165" t="inlineStr">
@@ -29476,12 +29476,12 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>NVH / Armoire A-MET-02</t>
+          <t>MET / Armoire A-MET-02</t>
         </is>
       </c>
       <c r="P166" t="inlineStr"/>
@@ -29567,7 +29567,7 @@
       </c>
       <c r="AK166" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL166" t="inlineStr">
@@ -29649,12 +29649,12 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>NVH / Armoire A-MET-02</t>
+          <t>MET / Armoire A-MET-02</t>
         </is>
       </c>
       <c r="P167" t="inlineStr"/>
@@ -29745,7 +29745,7 @@
       </c>
       <c r="AK167" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL167" t="inlineStr">
@@ -29829,12 +29829,12 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>NVH / Armoire A-MET-01</t>
+          <t>MET / Armoire A-MET-02</t>
         </is>
       </c>
       <c r="P168" t="inlineStr"/>
@@ -29919,7 +29919,7 @@
       </c>
       <c r="AK168" t="inlineStr">
         <is>
-          <t>GRIMEAU Rémi</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL168" t="inlineStr">
@@ -30001,12 +30001,12 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>NVH / Armoire A-NVH-01</t>
+          <t>MET / Armoire A-MET-02</t>
         </is>
       </c>
       <c r="P169" t="inlineStr"/>
@@ -30096,7 +30096,7 @@
       </c>
       <c r="AK169" t="inlineStr">
         <is>
-          <t>MERCIER Maxime</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL169" t="inlineStr">
@@ -30986,7 +30986,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Dial Indicator Depth Gauges</t>
+          <t>Depth gauge</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -31024,7 +31024,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>CQUA0098_Dial Indicator Depth Gauges</t>
+          <t>CQUA0098_Depth gauge</t>
         </is>
       </c>
       <c r="X175" t="inlineStr">
@@ -32561,12 +32561,12 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>MARCHAL Stéphanie</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>SCF / Roulante INGENIEUR ATEX</t>
+          <t>FEP / E-FEP-02 (Roulante INGE. ATEX)</t>
         </is>
       </c>
       <c r="P184" t="inlineStr"/>
@@ -32653,7 +32653,7 @@
       </c>
       <c r="AK184" t="inlineStr">
         <is>
-          <t>MARCHAL Stéphanie</t>
+          <t>SALAÜN Loïc</t>
         </is>
       </c>
       <c r="AL184" t="inlineStr">
@@ -33066,7 +33066,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Caliper [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -33157,22 +33157,22 @@
       </c>
       <c r="AG187" t="inlineStr">
         <is>
-          <t>Caliper [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AH187" t="inlineStr">
         <is>
-          <t>Caliper [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>Caliper [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AJ187" t="inlineStr">
         <is>
-          <t>Caliper [0 500 mm]</t>
+          <t>Gauge [0 +500 mm]</t>
         </is>
       </c>
       <c r="AK187" t="inlineStr">
@@ -44671,7 +44671,7 @@
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W255" t="inlineStr">
@@ -44832,7 +44832,7 @@
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W256" t="inlineStr">
@@ -45176,7 +45176,7 @@
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W258" t="inlineStr">
